--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>826379.4960975806</v>
+        <v>823819.3119377156</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673439</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>99.30327021090712</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -716,16 +716,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>41.24068147581144</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>148.1776514406542</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>128.5266232709637</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>159.0444121937469</v>
+        <v>223.3922079480025</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1066,10 +1066,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>102.4412549241587</v>
+        <v>78.86261552750678</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>114.5059581839116</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>188.3797956750023</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>174.3447851673241</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>76.89801764146438</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3.171820953558411</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>289.5687166806772</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203238013</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114108</v>
+        <v>97.97552699114094</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
-        <v>194.0579694461336</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458126</v>
+        <v>87.05432226458123</v>
       </c>
       <c r="I12" t="n">
-        <v>9.75316679403528</v>
+        <v>9.753166794035167</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.253538246862</v>
+        <v>123.2535382468619</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>124.1004521009535</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034042</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146345</v>
+        <v>79.00824149146332</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>185.9226570076761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.59827940147095</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754666</v>
       </c>
       <c r="H14" t="n">
-        <v>233.2715658672547</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>81.37259901119297</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>23.38872695698838</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187851</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833738</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>201.4105577836247</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784684</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2245,13 +2245,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833616</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>107.4021082756241</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.13764332383</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>54.32649042089736</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986265</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,7 +2485,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>19.91555826189155</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229292</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>133.7457933526604</v>
+        <v>19.9155582618868</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520987</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503964</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,7 +2959,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>55.52079624060496</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3193,13 +3193,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419834061</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>107.4021082756232</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766852</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
-        <v>91.89996056624796</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3904,16 +3904,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>20.92847288552886</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,13 +3952,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>75.00788511618009</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>99.97427419833838</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>9.146142788179617</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>987.1783726748436</v>
+        <v>859.685290191162</v>
       </c>
       <c r="C2" t="n">
-        <v>987.1783726748436</v>
+        <v>859.685290191162</v>
       </c>
       <c r="D2" t="n">
-        <v>628.9126740680931</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E2" t="n">
-        <v>628.9126740680931</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>217.9267692784856</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.012626270159</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2100.012626270159</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1747.243971000045</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1373.778212738965</v>
+        <v>1249.824622166974</v>
       </c>
       <c r="Y2" t="n">
-        <v>1373.778212738965</v>
+        <v>859.685290191162</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>790.7764984014352</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1154.038517360655</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1541.323645957601</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>514.036292340028</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="C4" t="n">
-        <v>514.036292340028</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D4" t="n">
-        <v>514.036292340028</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
         <v>51.2467865680031</v>
@@ -4486,52 +4486,52 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1506.621248083625</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1217.502910587462</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>962.8184223815755</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W4" t="n">
-        <v>962.8184223815755</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="X4" t="n">
-        <v>734.8288714835581</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="Y4" t="n">
-        <v>514.036292340028</v>
+        <v>349.6600800990971</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1802.273730074954</v>
+        <v>1112.520734025445</v>
       </c>
       <c r="C5" t="n">
-        <v>1433.311213134542</v>
+        <v>1112.520734025445</v>
       </c>
       <c r="D5" t="n">
-        <v>1075.045514527792</v>
+        <v>754.2550354186944</v>
       </c>
       <c r="E5" t="n">
-        <v>689.2572619295474</v>
+        <v>754.2550354186944</v>
       </c>
       <c r="F5" t="n">
-        <v>278.2713571399399</v>
+        <v>343.2691306290869</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4565,13 +4565,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X5" t="n">
-        <v>2188.873570139076</v>
+        <v>1502.660066001257</v>
       </c>
       <c r="Y5" t="n">
-        <v>2188.873570139076</v>
+        <v>1112.520734025445</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>1117.223096727985</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687206</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.770244284151</v>
+        <v>1614.486495938517</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,16 +4677,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.9149192343714</v>
+        <v>517.189556406156</v>
       </c>
       <c r="C7" t="n">
-        <v>664.9787363064645</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D7" t="n">
-        <v>514.8620968941287</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941287</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
         <v>51.24678656800311</v>
@@ -4723,52 +4723,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V7" t="n">
-        <v>1532.970104999589</v>
+        <v>1034.596277341134</v>
       </c>
       <c r="W7" t="n">
-        <v>1243.552934962629</v>
+        <v>745.1791073041734</v>
       </c>
       <c r="X7" t="n">
-        <v>1015.563384064611</v>
+        <v>517.189556406156</v>
       </c>
       <c r="Y7" t="n">
-        <v>1015.563384064611</v>
+        <v>517.189556406156</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1632.688211171978</v>
+        <v>1653.287154902436</v>
       </c>
       <c r="C8" t="n">
-        <v>1263.725694231566</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="D8" t="n">
-        <v>1263.725694231566</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>2372.056706506214</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W8" t="n">
-        <v>2019.2880512361</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="X8" t="n">
-        <v>2019.2880512361</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="Y8" t="n">
-        <v>2019.2880512361</v>
+        <v>1768.949738926589</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>1057.327935297104</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1420.589954256325</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>685.1760210978775</v>
+        <v>444.7476822882288</v>
       </c>
       <c r="C10" t="n">
-        <v>516.2398381699707</v>
+        <v>275.8114993603219</v>
       </c>
       <c r="D10" t="n">
-        <v>366.1231987576349</v>
+        <v>275.8114993603219</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>275.8114993603219</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>128.9215518624116</v>
       </c>
       <c r="G10" t="n">
         <v>51.24678656800311</v>
@@ -4990,22 +4990,22 @@
         <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1439.817372234358</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1150.699034738196</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V10" t="n">
-        <v>1150.699034738196</v>
+        <v>962.1544032232067</v>
       </c>
       <c r="W10" t="n">
-        <v>861.2818647012352</v>
+        <v>672.7372331862462</v>
       </c>
       <c r="X10" t="n">
-        <v>861.2818647012352</v>
+        <v>444.7476822882288</v>
       </c>
       <c r="Y10" t="n">
-        <v>861.2818647012352</v>
+        <v>444.7476822882288</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1923.794285444619</v>
+        <v>1535.258832689356</v>
       </c>
       <c r="C11" t="n">
-        <v>1554.831768504208</v>
+        <v>1166.296315748944</v>
       </c>
       <c r="D11" t="n">
-        <v>1196.566069897458</v>
+        <v>808.0306171421939</v>
       </c>
       <c r="E11" t="n">
-        <v>1196.566069897458</v>
+        <v>804.8267575931452</v>
       </c>
       <c r="F11" t="n">
-        <v>785.58016510785</v>
+        <v>393.8408528035377</v>
       </c>
       <c r="G11" t="n">
-        <v>371.0047194374971</v>
+        <v>393.8408528035377</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469177</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469177</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="J11" t="n">
         <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420319</v>
+        <v>704.5155104420323</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301224</v>
+        <v>1232.419981301226</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878108</v>
+        <v>1851.484858878112</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765423</v>
+        <v>2485.180661765428</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687099</v>
+        <v>3070.226377687105</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.04835985628</v>
+        <v>3535.048359856286</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882238</v>
+        <v>3835.937563882246</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234588</v>
+        <v>3925.553311234597</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455658</v>
+        <v>3826.588132455666</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.786021971438</v>
+        <v>3622.786021971446</v>
       </c>
       <c r="U11" t="n">
-        <v>3622.786021971438</v>
+        <v>3369.295305604054</v>
       </c>
       <c r="V11" t="n">
-        <v>3426.767871015747</v>
+        <v>3038.232418260483</v>
       </c>
       <c r="W11" t="n">
-        <v>3073.999215745633</v>
+        <v>2685.463762990369</v>
       </c>
       <c r="X11" t="n">
-        <v>2700.533457484553</v>
+        <v>2311.998004729289</v>
       </c>
       <c r="Y11" t="n">
-        <v>2310.394125508741</v>
+        <v>1921.858672753478</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503044</v>
+        <v>88.36274985503049</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469177</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792126</v>
+        <v>196.8120623792131</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376498</v>
+        <v>477.1621322376509</v>
       </c>
       <c r="L12" t="n">
-        <v>900.4499396649591</v>
+        <v>900.449939664961</v>
       </c>
       <c r="M12" t="n">
-        <v>1413.763713908848</v>
+        <v>977.3905023848049</v>
       </c>
       <c r="N12" t="n">
-        <v>1955.072021259914</v>
+        <v>1518.698809735872</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145095</v>
+        <v>1991.670362601622</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1094.703173037794</v>
+        <v>203.865058245857</v>
       </c>
       <c r="C13" t="n">
-        <v>925.7669901098875</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="D13" t="n">
-        <v>775.6503506975517</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="E13" t="n">
-        <v>627.7372571151586</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="F13" t="n">
-        <v>480.8473096172482</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="G13" t="n">
-        <v>313.367412093791</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="H13" t="n">
-        <v>169.132356598773</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469177</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600399</v>
+        <v>139.0818334600402</v>
       </c>
       <c r="K13" t="n">
-        <v>368.45504734577</v>
+        <v>368.4550473457708</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888912</v>
+        <v>717.5002252888924</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.90854877922</v>
+        <v>1095.908548779222</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542993</v>
+        <v>1470.753784542995</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715848</v>
+        <v>1800.96773471585</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.00213308252</v>
+        <v>2060.002133082523</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551103</v>
+        <v>2155.909043551107</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014272</v>
+        <v>2076.102739014275</v>
       </c>
       <c r="S13" t="n">
-        <v>1888.302075370154</v>
+        <v>1888.302075370158</v>
       </c>
       <c r="T13" t="n">
-        <v>1888.302075370154</v>
+        <v>1667.488017920203</v>
       </c>
       <c r="U13" t="n">
-        <v>1888.302075370154</v>
+        <v>1378.397311360492</v>
       </c>
       <c r="V13" t="n">
-        <v>1888.302075370154</v>
+        <v>1123.712823154605</v>
       </c>
       <c r="W13" t="n">
-        <v>1598.884905333194</v>
+        <v>834.2956531176442</v>
       </c>
       <c r="X13" t="n">
-        <v>1370.895354435176</v>
+        <v>606.3061022196268</v>
       </c>
       <c r="Y13" t="n">
-        <v>1276.351637868034</v>
+        <v>385.5135230760967</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2266.424947555046</v>
+        <v>2266.424947555044</v>
       </c>
       <c r="C14" t="n">
-        <v>1897.462430614635</v>
+        <v>1897.462430614633</v>
       </c>
       <c r="D14" t="n">
-        <v>1539.196732007884</v>
+        <v>1539.196732007882</v>
       </c>
       <c r="E14" t="n">
-        <v>1153.40847940964</v>
+        <v>1153.408479409638</v>
       </c>
       <c r="F14" t="n">
-        <v>742.4225746200325</v>
+        <v>742.4225746200307</v>
       </c>
       <c r="G14" t="n">
-        <v>328.4394675364389</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L14" t="n">
         <v>1461.457663018651</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P14" t="n">
         <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750195</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469745</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126174</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856059</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.16411959498</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619168</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060312</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060312</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060312</v>
       </c>
       <c r="L15" t="n">
-        <v>141.6400447072585</v>
+        <v>525.8973588994244</v>
       </c>
       <c r="M15" t="n">
-        <v>733.6583989593863</v>
+        <v>1117.915713151552</v>
       </c>
       <c r="N15" t="n">
-        <v>1355.754362358723</v>
+        <v>1740.011676550888</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358917</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>698.4235641958605</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="C16" t="n">
-        <v>529.4873812679537</v>
+        <v>325.1228070941668</v>
       </c>
       <c r="D16" t="n">
-        <v>529.4873812679537</v>
+        <v>175.0061676818309</v>
       </c>
       <c r="E16" t="n">
-        <v>381.5742876855605</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="F16" t="n">
-        <v>234.6843401876502</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="G16" t="n">
-        <v>234.6843401876502</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156341</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861982</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693325</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
@@ -5467,19 +5467,19 @@
         <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>1668.591243136709</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1413.906754930822</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
         <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>1100.86460816963</v>
+        <v>896.5000339958435</v>
       </c>
       <c r="Y16" t="n">
-        <v>880.0720290261003</v>
+        <v>675.7074548523134</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168593</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,34 +5531,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="18">
@@ -5586,19 +5586,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L18" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
         <v>1140.291933891999</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263196</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="C19" t="n">
-        <v>680.4481746984127</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="D19" t="n">
-        <v>530.331535286077</v>
+        <v>194.8007783998278</v>
       </c>
       <c r="E19" t="n">
-        <v>382.418441703684</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2023.916610740954</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1769.232122535067</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1251.825401600089</v>
+        <v>916.2946447138404</v>
       </c>
       <c r="Y19" t="n">
-        <v>1031.032822456559</v>
+        <v>695.5020655703103</v>
       </c>
     </row>
     <row r="20">
@@ -5744,19 +5744,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5768,28 +5768,28 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591808</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536376</v>
+        <v>513.8536007400692</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257307</v>
+        <v>344.9174178121623</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133949</v>
+        <v>194.8007783998266</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310019</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330918</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5929,31 +5929,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.400878868272</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662385</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727407</v>
+        <v>916.294644713839</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583877</v>
+        <v>695.5020655703089</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5978,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.6725264685181</v>
+        <v>560.7825789706062</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406112</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282754</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6160,37 +6160,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2426.846358063198</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718102</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741044</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085241</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879354</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842393</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>963.2236229443761</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>742.4310438008459</v>
       </c>
     </row>
     <row r="26">
@@ -6206,58 +6206,58 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>768.5380889459584</v>
+        <v>580.8993044876649</v>
       </c>
       <c r="C28" t="n">
-        <v>599.6019060180515</v>
+        <v>411.9631215597581</v>
       </c>
       <c r="D28" t="n">
-        <v>599.6019060180515</v>
+        <v>261.8464821474224</v>
       </c>
       <c r="E28" t="n">
-        <v>599.6019060180515</v>
+        <v>113.9333885650292</v>
       </c>
       <c r="F28" t="n">
-        <v>452.7119585201434</v>
+        <v>113.9333885650292</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
         <v>2035.089393279802</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817746</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1170.979132919728</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>950.1865537761981</v>
+        <v>762.5477693179047</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6476,37 +6476,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.6725264685176</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406107</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282751</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458821</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6640,31 +6640,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583152</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377265</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442287</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987573</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="32">
@@ -6689,10 +6689,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6701,19 +6701,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6783,22 +6783,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536376</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257307</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133949</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310019</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330918</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868272</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662385</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727407</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583877</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1920.063992790046</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2343.687142285114</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7123,7 +7123,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
         <v>1688.385853854706</v>
@@ -7132,13 +7132,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C40" t="n">
-        <v>631.5645865368208</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D40" t="n">
-        <v>481.4479471244852</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E40" t="n">
-        <v>333.5348535420922</v>
+        <v>197.0043242297704</v>
       </c>
       <c r="F40" t="n">
-        <v>186.6449060441819</v>
+        <v>197.0043242297705</v>
       </c>
       <c r="G40" t="n">
-        <v>186.6449060441819</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U40" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1492342949674</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7427,10 +7427,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7588,31 +7588,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1901.695539989114</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1647.011051783227</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="44">
@@ -7649,7 +7649,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7737,16 +7737,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D46" t="n">
-        <v>411.963121559762</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="E46" t="n">
-        <v>411.963121559762</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="F46" t="n">
-        <v>411.963121559762</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>244.767022274642</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>103.0551911168402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>73.66059580999729</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039157</v>
       </c>
       <c r="P3" t="n">
-        <v>265.0304328515147</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,28 +8295,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>265.0304328515148</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>45.76488231024473</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>60.50016306149558</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154991</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>378.7585491187033</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238038</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,10 +23312,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>133.6942890240013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>43.14636899767434</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.71507747034032</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1997994941144</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>124.9863739506238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.29152613729104</v>
       </c>
       <c r="H14" t="n">
-        <v>50.29152613728959</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>65.0613636353762</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
         <v>81.80457674440902</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>202.3209284320488</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.534772309241816e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823179</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>84.77391660561946</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>46.45968844823301</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>46.45968844823015</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>31.77834493960847</v>
+        <v>145.6085800303821</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24692,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823146</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>125.5054897610396</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25081,13 +25081,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409392824</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194262</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>63.36835372228757</v>
       </c>
       <c r="H40" t="n">
-        <v>48.39475227997593</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25792,16 +25792,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,13 +25840,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>211.1765892730641</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459286</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>72.11969353038592</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>910213.0161799527</v>
+        <v>910213.0161799535</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>990602.0478367362</v>
+        <v>990602.047836736</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>996073.9122004056</v>
+        <v>996073.9122004055</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>996073.9122004056</v>
+        <v>996073.9122004054</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>996073.9122004056</v>
+        <v>996073.9122004055</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>996073.9122004056</v>
+        <v>996073.9122004055</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>996073.9122004056</v>
+        <v>996073.9122004055</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>996073.9122004056</v>
+        <v>996073.9122004055</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787488</v>
       </c>
       <c r="C2" t="n">
         <v>431046.9291787486</v>
@@ -26320,40 +26320,40 @@
         <v>431046.9291787487</v>
       </c>
       <c r="E2" t="n">
-        <v>386954.4379713449</v>
+        <v>386954.4379713451</v>
       </c>
       <c r="F2" t="n">
-        <v>421406.8801099661</v>
+        <v>421406.880109966</v>
       </c>
       <c r="G2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="H2" t="n">
         <v>423751.9648372532</v>
       </c>
       <c r="I2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="J2" t="n">
-        <v>423751.9648372534</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="K2" t="n">
         <v>423751.9648372532</v>
       </c>
       <c r="L2" t="n">
+        <v>423751.9648372532</v>
+      </c>
+      <c r="M2" t="n">
+        <v>423751.9648372532</v>
+      </c>
+      <c r="N2" t="n">
+        <v>423751.9648372533</v>
+      </c>
+      <c r="O2" t="n">
+        <v>423751.9648372532</v>
+      </c>
+      <c r="P2" t="n">
         <v>423751.964837253</v>
-      </c>
-      <c r="M2" t="n">
-        <v>423751.9648372533</v>
-      </c>
-      <c r="N2" t="n">
-        <v>423751.9648372532</v>
-      </c>
-      <c r="O2" t="n">
-        <v>423751.9648372531</v>
-      </c>
-      <c r="P2" t="n">
-        <v>423751.9648372532</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,22 +26372,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325187.1190357057</v>
+        <v>325187.1190357076</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051389</v>
+        <v>166521.347105137</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557892</v>
+        <v>11167.23623557856</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>84929.59434456802</v>
+        <v>84929.59434456853</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848934</v>
+        <v>43782.40655848878</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224638</v>
+        <v>3023.297977224584</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,31 +26427,31 @@
         <v>8018.191469425932</v>
       </c>
       <c r="F4" t="n">
-        <v>8110.779805506623</v>
+        <v>8110.779805506622</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731966</v>
       </c>
       <c r="M4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426732038</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
         <v>8117.312426731974</v>
@@ -26470,13 +26470,13 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214705</v>
+        <v>86093.7221621472</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-910960.6270988791</v>
+        <v>-910960.6270988793</v>
       </c>
       <c r="C6" t="n">
-        <v>203791.1564770401</v>
+        <v>203791.1564770402</v>
       </c>
       <c r="D6" t="n">
-        <v>203791.1564770402</v>
+        <v>203791.1564770405</v>
       </c>
       <c r="E6" t="n">
-        <v>-32344.59469593376</v>
+        <v>-32554.55893978043</v>
       </c>
       <c r="F6" t="n">
-        <v>146632.6246854821</v>
+        <v>146586.7196899184</v>
       </c>
       <c r="G6" t="n">
-        <v>303344.8863510353</v>
+        <v>303310.1484255999</v>
       </c>
       <c r="H6" t="n">
-        <v>314512.122586614</v>
+        <v>314477.3846611783</v>
       </c>
       <c r="I6" t="n">
-        <v>314512.1225866142</v>
+        <v>314477.3846611783</v>
       </c>
       <c r="J6" t="n">
-        <v>146906.9447766317</v>
+        <v>146872.2068511959</v>
       </c>
       <c r="K6" t="n">
-        <v>314512.1225866141</v>
+        <v>314477.3846611784</v>
       </c>
       <c r="L6" t="n">
-        <v>314512.1225866141</v>
+        <v>314477.3846611784</v>
       </c>
       <c r="M6" t="n">
-        <v>229582.5282420461</v>
+        <v>229547.7903166098</v>
       </c>
       <c r="N6" t="n">
-        <v>270729.7160281247</v>
+        <v>270694.9781026897</v>
       </c>
       <c r="O6" t="n">
-        <v>311488.8246093894</v>
+        <v>311454.0866839538</v>
       </c>
       <c r="P6" t="n">
-        <v>314512.122586614</v>
+        <v>314477.3846611782</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494555</v>
+        <v>1212.170267494557</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26796,10 +26796,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086471</v>
+        <v>981.3883278086491</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,16 +26966,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1053753770161</v>
+        <v>278.1053753770177</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218306</v>
+        <v>145.870781221829</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.934451625287693</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>340.8034957086082</v>
+        <v>340.8034957086103</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173599</v>
+        <v>178.7569625173574</v>
       </c>
       <c r="G4" t="n">
         <v>12.56299777364143</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086082</v>
+        <v>340.8034957086103</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173596</v>
+        <v>178.7569625173574</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086082</v>
+        <v>340.8034957086103</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173599</v>
+        <v>178.7569625173574</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364143</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>312.2444325620469</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>328.4904192026576</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>31.65432874128314</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,16 +27543,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>92.22207272624823</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>252.5032905792071</v>
+        <v>188.1554948249515</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27786,10 +27786,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>149.6963883996693</v>
+        <v>173.2750277963212</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>268.227883479569</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>139.3724627951326</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.487195014613178</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>89.40858240333981</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
@@ -28062,19 +28062,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>5.998551739080243e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29016,7 +29016,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>-1.989519660128281e-12</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29196,7 +29196,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.182571628561534e-12</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29442,7 +29442,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>2.073837398105146e-12</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -29499,7 +29499,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>-3.922195901395753e-12</v>
       </c>
     </row>
     <row r="29">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485646</v>
+        <v>4.873046301485652</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508988</v>
+        <v>49.90608543508994</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380255</v>
+        <v>187.8681175380258</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307177</v>
+        <v>413.5937135307182</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726052</v>
+        <v>619.869763472606</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216967</v>
+        <v>769.0032542216977</v>
       </c>
       <c r="M11" t="n">
-        <v>855.664291385742</v>
+        <v>855.6642913857431</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898381</v>
+        <v>869.5098341898392</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294402</v>
+        <v>821.0534800294413</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615132</v>
+        <v>700.7501494615141</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895583</v>
+        <v>526.234178789559</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356979</v>
+        <v>306.1064947356983</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951043</v>
+        <v>111.0445425951044</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475342</v>
+        <v>21.33176018475345</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188516</v>
+        <v>0.3898437041188521</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969421</v>
+        <v>2.607309631969424</v>
       </c>
       <c r="H12" t="n">
-        <v>25.1811219719152</v>
+        <v>25.18112197191523</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596472</v>
+        <v>89.76921320596483</v>
       </c>
       <c r="J12" t="n">
-        <v>246.333582378304</v>
+        <v>246.3335823783043</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202551</v>
+        <v>421.0233277202557</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256411</v>
+        <v>566.1178216256419</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845325</v>
+        <v>219.8517740430728</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147136</v>
+        <v>678.1177801147144</v>
       </c>
       <c r="O12" t="n">
-        <v>195.7666705910914</v>
+        <v>620.3452877431813</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205467</v>
+        <v>497.8817840205473</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071844</v>
+        <v>332.8207874071848</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533297</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697583</v>
+        <v>48.42963285697589</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780657</v>
+        <v>10.50928750780658</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190409</v>
+        <v>0.1715335284190411</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236083</v>
+        <v>2.185880810236086</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737173</v>
+        <v>19.43446756737176</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691787</v>
+        <v>65.73539745691795</v>
       </c>
       <c r="J13" t="n">
-        <v>154.541773283691</v>
+        <v>154.5417732836913</v>
       </c>
       <c r="K13" t="n">
-        <v>253.959606861974</v>
+        <v>253.9596068619743</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509173</v>
+        <v>324.9808615509178</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263707</v>
+        <v>342.6467528263711</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973092</v>
+        <v>334.4993788973096</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050057</v>
+        <v>308.9643167050061</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761894</v>
+        <v>264.3723481761897</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916778</v>
+        <v>183.0377103916781</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570603</v>
+        <v>98.28514988570616</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929609</v>
+        <v>38.09394102929614</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826897</v>
+        <v>9.33967255282691</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765138</v>
+        <v>0.1192298623765139</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,7 +32081,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>187.8760176396499</v>
+        <v>574.9651909908048</v>
       </c>
       <c r="M15" t="n">
         <v>740.1323715504302</v>
@@ -32093,13 +32093,13 @@
         <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S15" t="n">
         <v>54.25758340862161</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>210.3948924365574</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>328.9038320421819</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33755,7 +33755,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>314.4610577451606</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34205,19 +34205,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,7 +34226,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>550.5977692975241</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>371.3409564478475</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P3" t="n">
-        <v>514.7099619750469</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>562.710793489365</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>381.1895643063678</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>451.6972626543695</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
@@ -35270,7 +35270,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040314</v>
+        <v>232.5478090040319</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276247</v>
+        <v>399.7799124276254</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517094</v>
+        <v>533.2368392517105</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584693</v>
+        <v>625.3180581584704</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932471</v>
+        <v>640.0967705932483</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077534</v>
+        <v>590.9552686077545</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062436</v>
+        <v>469.5171537062445</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151088</v>
+        <v>303.9284889151095</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156581</v>
+        <v>90.52095692156621</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116373</v>
+        <v>119.4959557116376</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458961</v>
+        <v>283.1818887458967</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457669</v>
+        <v>427.5634418457677</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625141</v>
+        <v>77.71774012105446</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313803</v>
+        <v>546.7760680313811</v>
       </c>
       <c r="O12" t="n">
-        <v>53.170426146647</v>
+        <v>477.7490432987369</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062165</v>
+        <v>363.9073766062171</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211628</v>
+        <v>192.8390133211632</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936578</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701827</v>
+        <v>61.1825931670185</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360911</v>
+        <v>231.6901150360914</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112334</v>
+        <v>352.5708868112339</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882113</v>
+        <v>382.2306297882117</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765377</v>
+        <v>378.6315512765382</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190454</v>
+        <v>333.5494446190458</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410829</v>
+        <v>261.6509074410832</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998343</v>
+        <v>96.87566713998369</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>49.32163785977574</v>
+        <v>436.4108112109305</v>
       </c>
       <c r="M15" t="n">
         <v>597.9983376284119</v>
@@ -35741,13 +35741,13 @@
         <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>453.6331143610859</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>68.26085851453907</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>188.9220579561604</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37403,7 +37403,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>174.4792836591391</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37853,19 +37853,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,7 +37874,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>416.6233618831939</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
